--- a/Assets/StreamingAssets/Data_excel.xlsx
+++ b/Assets/StreamingAssets/Data_excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373E909-C1E6-42EE-A3C5-24BCBBE2555E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C8F7B-178B-42A7-ABD6-58AA27285BA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1188" windowWidth="19800" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="1284" windowWidth="19800" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
     <sheet name="capacity" sheetId="1" r:id="rId2"/>
+    <sheet name="eventID" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +425,14 @@
   </si>
   <si>
     <t>级能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重置内在能力事件 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E62EE4-E48D-46F1-8AA1-7ED1E7A67A34}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -884,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2313,4 +2322,126 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25627C9A-1F9B-417A-86BA-C9D7A828B6F7}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/Data_excel.xlsx
+++ b/Assets/StreamingAssets/Data_excel.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C8F7B-178B-42A7-ABD6-58AA27285BA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="1284" windowWidth="19800" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
     <sheet name="capacity" sheetId="1" r:id="rId2"/>
     <sheet name="eventID" sheetId="3" r:id="rId3"/>
+    <sheet name="Equip" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{82685583-75F3-4CD0-B5CF-EB24BE8D87F3}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,9 +37,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -63,22 +55,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="265">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>级能力</t>
+  </si>
+  <si>
+    <t>内在能力界面</t>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>力量+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力量+2</t>
@@ -228,8 +234,10 @@
     <t>力量+50</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>攻击力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击力+2</t>
@@ -304,8 +312,10 @@
     <t>攻击力+25</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>技能伤害百分比增加5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害百分比增加6</t>
@@ -344,8 +354,10 @@
     <t>技能伤害百分比增加17</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>对首领怪物伤害增加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对首领怪物伤害增加2</t>
@@ -363,8 +375,10 @@
     <t>对首领怪物伤害增加6</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Buff持续时间增加1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Buff持续时间增加2秒</t>
@@ -376,110 +390,844 @@
     <t>Buff持续时间增加4秒</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>金币获得量翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经验值获得辆翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内在能力界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">重置内在能力事件 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EquipType</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Inlay</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Descript</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>普通的长剑</t>
+  </si>
+  <si>
+    <t>战争利刃</t>
+  </si>
+  <si>
+    <t>锋利的长刃</t>
+  </si>
+  <si>
+    <t>雕文长剑</t>
+  </si>
+  <si>
+    <t>趁手的长剑，威力无比</t>
+  </si>
+  <si>
+    <t>死亡之刃</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>带来死亡的利刃</t>
+  </si>
+  <si>
+    <t>附魔之锋</t>
+  </si>
+  <si>
+    <t>BOSS掉落</t>
+  </si>
+  <si>
+    <t>附魔的利刃</t>
+  </si>
+  <si>
+    <t>传说之剑</t>
+  </si>
+  <si>
+    <t>商城出售</t>
+  </si>
+  <si>
+    <t>金币之力，无往不利！</t>
+  </si>
+  <si>
+    <t>护腕</t>
+  </si>
+  <si>
+    <t>铁护腕</t>
+  </si>
+  <si>
+    <t>普通的护腕</t>
+  </si>
+  <si>
+    <t>战争护腕</t>
+  </si>
+  <si>
+    <t>强力的护腕</t>
+  </si>
+  <si>
+    <t>雕文护腕</t>
+  </si>
+  <si>
+    <t>趁手的护腕</t>
+  </si>
+  <si>
+    <t>死亡护腕</t>
+  </si>
+  <si>
+    <t>带来死亡的护腕</t>
+  </si>
+  <si>
+    <t>附魔护腕</t>
+  </si>
+  <si>
+    <t>附魔的护腕</t>
+  </si>
+  <si>
+    <t>传说护腕</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
+  <si>
+    <t>军铠</t>
+  </si>
+  <si>
+    <t>普通的铠甲</t>
+  </si>
+  <si>
+    <t>重铠</t>
+  </si>
+  <si>
+    <t>重装铠甲</t>
+  </si>
+  <si>
+    <t>游侠铠</t>
+  </si>
+  <si>
+    <t>游侠的铠甲，轻便且耐抗</t>
+  </si>
+  <si>
+    <t>生命铠甲</t>
+  </si>
+  <si>
+    <t>附加生命力量的铠甲</t>
+  </si>
+  <si>
+    <t>附魔铠甲</t>
+  </si>
+  <si>
+    <t>附魔的铠甲</t>
+  </si>
+  <si>
+    <t>传说重铠</t>
+  </si>
+  <si>
+    <t>天下武功，为钱不破！</t>
+  </si>
+  <si>
+    <t>头饰</t>
+  </si>
+  <si>
+    <t>布帽</t>
+  </si>
+  <si>
+    <t>普通的帽子</t>
+  </si>
+  <si>
+    <t>军帽</t>
+  </si>
+  <si>
+    <t>军用帽子</t>
+  </si>
+  <si>
+    <t>游侠帽</t>
+  </si>
+  <si>
+    <t>游侠的帽子，轻便且耐抗</t>
+  </si>
+  <si>
+    <t>生命之帽</t>
+  </si>
+  <si>
+    <t>附加生命力量的帽子</t>
+  </si>
+  <si>
+    <t>附魔军帽</t>
+  </si>
+  <si>
+    <t>附魔的军帽</t>
+  </si>
+  <si>
+    <t>传说军帽</t>
+  </si>
+  <si>
+    <t>腰带</t>
+  </si>
+  <si>
+    <t>布腰带</t>
+  </si>
+  <si>
+    <t>普通的腰带</t>
+  </si>
+  <si>
+    <t>军腰带</t>
+  </si>
+  <si>
+    <t>军用腰带</t>
+  </si>
+  <si>
+    <t>游侠腰带</t>
+  </si>
+  <si>
+    <t>游侠的腰带，轻便且耐抗</t>
+  </si>
+  <si>
+    <t>生命腰带</t>
+  </si>
+  <si>
+    <t>附加生命力量的腰带</t>
+  </si>
+  <si>
+    <t>附魔腰带</t>
+  </si>
+  <si>
+    <t>附魔的腰带</t>
+  </si>
+  <si>
+    <t>传说腰带</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>普通的鞋子</t>
+  </si>
+  <si>
+    <t>军鞋</t>
+  </si>
+  <si>
+    <t>军用鞋子</t>
+  </si>
+  <si>
+    <t>游侠鞋</t>
+  </si>
+  <si>
+    <t>游侠的鞋子，轻便且耐抗</t>
+  </si>
+  <si>
+    <t>生命鞋子</t>
+  </si>
+  <si>
+    <t>附加生命力量的鞋子</t>
+  </si>
+  <si>
+    <t>附魔鞋子</t>
+  </si>
+  <si>
+    <t>附魔的鞋子</t>
+  </si>
+  <si>
+    <t>传说鞋子</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>木杖</t>
+  </si>
+  <si>
+    <t>普通的木杖</t>
+  </si>
+  <si>
+    <t>学徒法杖</t>
+  </si>
+  <si>
+    <t>学徒专用法杖</t>
+  </si>
+  <si>
+    <t>魔杖</t>
+  </si>
+  <si>
+    <t>魔力充盈的魔杖</t>
+  </si>
+  <si>
+    <t>死亡魔杖</t>
+  </si>
+  <si>
+    <t>拥有死亡之力的加强魔杖</t>
+  </si>
+  <si>
+    <t>奥术魔杖</t>
+  </si>
+  <si>
+    <t>奥术之力</t>
+  </si>
+  <si>
+    <t>毁灭魔杖</t>
+  </si>
+  <si>
+    <t>法力护腕</t>
+  </si>
+  <si>
+    <t>魔力护腕</t>
+  </si>
+  <si>
+    <t>漩涡护腕</t>
+  </si>
+  <si>
+    <t>风暴护腕</t>
+  </si>
+  <si>
+    <t>拥有风暴之力的护腕</t>
+  </si>
+  <si>
+    <t>奥术护腕</t>
+  </si>
+  <si>
+    <t>毁灭护腕</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>布袍</t>
+  </si>
+  <si>
+    <t>普通的布袍</t>
+  </si>
+  <si>
+    <t>魔力法袍</t>
+  </si>
+  <si>
+    <t>拥有魔力的法袍</t>
+  </si>
+  <si>
+    <t>漩涡法袍</t>
+  </si>
+  <si>
+    <t>趁手的法袍</t>
+  </si>
+  <si>
+    <t>风暴法袍</t>
+  </si>
+  <si>
+    <t>拥有风暴之力的法袍</t>
+  </si>
+  <si>
+    <t>奥术法袍</t>
+  </si>
+  <si>
+    <t>毁灭法袍</t>
+  </si>
+  <si>
+    <t>布草帽</t>
+  </si>
+  <si>
+    <t>普通的法帽</t>
+  </si>
+  <si>
+    <t>魔力法帽</t>
+  </si>
+  <si>
+    <t>拥有魔力的法帽</t>
+  </si>
+  <si>
+    <t>漩涡法帽</t>
+  </si>
+  <si>
+    <t>趁手的法帽</t>
+  </si>
+  <si>
+    <t>风暴法帽</t>
+  </si>
+  <si>
+    <t>拥有风暴之力的法帽</t>
+  </si>
+  <si>
+    <t>奥术法帽</t>
+  </si>
+  <si>
+    <t>毁灭法帽</t>
+  </si>
+  <si>
+    <t>稠腰带</t>
+  </si>
+  <si>
+    <t>魔力腰带</t>
+  </si>
+  <si>
+    <t>拥有魔力的腰带</t>
+  </si>
+  <si>
+    <t>漩涡腰带</t>
+  </si>
+  <si>
+    <t>趁手的腰带</t>
+  </si>
+  <si>
+    <t>风暴腰带</t>
+  </si>
+  <si>
+    <t>拥有风暴之力的腰带</t>
+  </si>
+  <si>
+    <t>奥术腰带</t>
+  </si>
+  <si>
+    <t>毁灭腰带</t>
+  </si>
+  <si>
+    <t>草鞋</t>
+  </si>
+  <si>
+    <t>魔力鞋子</t>
+  </si>
+  <si>
+    <t>拥有魔力的鞋子</t>
+  </si>
+  <si>
+    <t>漩涡鞋子</t>
+  </si>
+  <si>
+    <t>趁手的鞋子</t>
+  </si>
+  <si>
+    <t>风暴鞋</t>
+  </si>
+  <si>
+    <t>拥有风暴之力的鞋</t>
+  </si>
+  <si>
+    <t>奥术鞋</t>
+  </si>
+  <si>
+    <t>毁灭之鞋</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -487,27 +1235,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -556,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -591,7 +1631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -765,1579 +1805,1576 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E62EE4-E48D-46F1-8AA1-7ED1E7A67A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="44.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="3"/>
+    <col min="2" max="2" width="44.2166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.4416666666667" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
         <v>107</v>
-      </c>
-      <c r="C96" t="s">
-        <v>97</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D100">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D101">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25627C9A-1F9B-417A-86BA-C9D7A828B6F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2345,10 +3382,10 @@
         <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2359,89 +3396,3554 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="25.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>100</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>110</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>700</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>180</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>270</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>380</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>520</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>110</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>700</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>270</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>380</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>520</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>700</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>60</v>
+      </c>
+      <c r="J16" s="1">
+        <v>120</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1">
+        <v>240</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>200</v>
+      </c>
+      <c r="J18" s="1">
+        <v>400</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>260</v>
+      </c>
+      <c r="J19" s="1">
+        <v>520</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>700</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1">
+        <v>80</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>60</v>
+      </c>
+      <c r="J23" s="1">
+        <v>120</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1">
+        <v>230</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1">
+        <v>400</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>40</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>700</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1">
+        <v>80</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1">
+        <v>120</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>130</v>
+      </c>
+      <c r="J30" s="1">
+        <v>230</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>260</v>
+      </c>
+      <c r="J31" s="1">
+        <v>520</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>100</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1">
+        <v>40</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>700</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40</v>
+      </c>
+      <c r="J34" s="1">
+        <v>80</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>60</v>
+      </c>
+      <c r="J35" s="1">
+        <v>120</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>130</v>
+      </c>
+      <c r="J36" s="1">
+        <v>260</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>260</v>
+      </c>
+      <c r="J37" s="1">
+        <v>520</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>60</v>
+      </c>
+      <c r="L38" s="1">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>120</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>120</v>
+      </c>
+      <c r="L39" s="1">
+        <v>700</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>190</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>190</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>280</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>280</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>390</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>390</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>530</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>530</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>60</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>100</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>110</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>700</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>190</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>280</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>390</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>530</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <v>20</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>100</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1">
+        <v>70</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>700</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+      <c r="J52" s="1">
+        <v>110</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>110</v>
+      </c>
+      <c r="J53" s="1">
+        <v>230</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>190</v>
+      </c>
+      <c r="J54" s="1">
+        <v>390</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>250</v>
+      </c>
+      <c r="J55" s="1">
+        <v>510</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>10</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>100</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>10</v>
+      </c>
+      <c r="J57" s="1">
+        <v>30</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>700</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>30</v>
+      </c>
+      <c r="J58" s="1">
+        <v>70</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>50</v>
+      </c>
+      <c r="J59" s="1">
+        <v>110</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>120</v>
+      </c>
+      <c r="J60" s="1">
+        <v>250</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>190</v>
+      </c>
+      <c r="J61" s="1">
+        <v>390</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>10</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>100</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <v>30</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>700</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>30</v>
+      </c>
+      <c r="J64" s="1">
+        <v>70</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>50</v>
+      </c>
+      <c r="J65" s="1">
+        <v>110</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>120</v>
+      </c>
+      <c r="J66" s="1">
+        <v>250</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>190</v>
+      </c>
+      <c r="J67" s="1">
+        <v>390</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>10</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>100</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>10</v>
+      </c>
+      <c r="J69" s="1">
+        <v>30</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>700</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>30</v>
+      </c>
+      <c r="J70" s="1">
+        <v>70</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>50</v>
+      </c>
+      <c r="J71" s="1">
+        <v>110</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>120</v>
+      </c>
+      <c r="J72" s="1">
+        <v>250</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>190</v>
+      </c>
+      <c r="J73" s="1">
+        <v>390</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>